--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -679,10 +679,10 @@
         <v>8.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
         <v>8.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>1.59</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -679,7 +679,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Gloria Bistrita-Nasaud</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -913,135 +913,270 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:10:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-10-07</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Criciuma</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,106 +679,106 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,260 +923,1205 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Scottish League One</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alloa</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>950</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Connahs Quay</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Colwyn Bay</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K8" t="n">
+        <v>980</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Penybont FC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>980</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Barry Town Utd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Briton Ferry Llansawel</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>980</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:10:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Real Soacha Cundinamarca FC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-10-07</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Amazonas FC</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Criciuma</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.26</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
         <v>8.199999999999999</v>
@@ -961,10 +961,10 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
         <v>2.38</v>
@@ -979,10 +979,10 @@
         <v>2.24</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.14</v>
@@ -991,40 +991,40 @@
         <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
         <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
         <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
         <v>14.5</v>
@@ -1036,13 +1036,13 @@
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
         <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1081,10 +1081,10 @@
         <v>1.47</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1099,19 +1099,19 @@
         <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,7 +1120,7 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
         <v>1.18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1219,7 +1219,7 @@
         <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>1.43</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,28 +1231,28 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q6" t="n">
         <v>1.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S6" t="n">
         <v>1.18</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>2.66</v>
@@ -1348,14 +1348,14 @@
         <v>1000</v>
       </c>
       <c r="H7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.09</v>
       </c>
-      <c r="I7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.03</v>
-      </c>
       <c r="K7" t="n">
         <v>1000</v>
       </c>
@@ -1372,13 +1372,13 @@
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q7" t="n">
         <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q8" t="n">
         <v>1.19</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S8" t="n">
         <v>1.19</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>980</v>
@@ -1636,28 +1636,28 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.27</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S9" t="n">
         <v>1.27</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
@@ -1753,7 +1753,7 @@
         <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
@@ -1771,19 +1771,19 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
         <v>1.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S10" t="n">
         <v>1.16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
         <v>2.08</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -898,7 +898,7 @@
         <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
         <v>8.199999999999999</v>
@@ -985,10 +985,10 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -1081,10 +1081,10 @@
         <v>1.47</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O5" t="n">
         <v>1.26</v>
@@ -1114,10 +1114,10 @@
         <v>1.26</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.78</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.18</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
@@ -1375,19 +1375,19 @@
         <v>1.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.59</v>
@@ -1489,7 +1489,7 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
         <v>980</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
         <v>1.19</v>
@@ -1615,7 +1615,7 @@
         <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
         <v>1.01</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K9" t="n">
         <v>980</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q9" t="n">
         <v>1.27</v>
@@ -1759,7 +1759,7 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
         <v>980</v>
@@ -1771,28 +1771,28 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q10" t="n">
         <v>1.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
         <v>1.16</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
@@ -1888,28 +1888,28 @@
         <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
         <v>1.51</v>
@@ -1918,76 +1918,76 @@
         <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -943,7 +943,7 @@
         <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I4" t="n">
         <v>8.199999999999999</v>
@@ -952,7 +952,7 @@
         <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.26</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1102,16 +1102,16 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.1</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.26</v>
+        <v>2.64</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="W5" t="n">
         <v>1.18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
         <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.09</v>
@@ -1924,10 +1924,10 @@
         <v>4.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.03</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,34 +2041,34 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2104,16 +2104,16 @@
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>190</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="G9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
         <v>1.01</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
         <v>980</v>
@@ -2056,7 +2056,7 @@
         <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -814,10 +814,10 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.94</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,16 +832,16 @@
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
         <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>980</v>
@@ -892,13 +892,13 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
         <v>1.5</v>
@@ -952,7 +952,7 @@
         <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.26</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
@@ -973,16 +973,16 @@
         <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -994,10 +994,10 @@
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
         <v>230</v>
@@ -1018,7 +1018,7 @@
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>24</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
         <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>980</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
         <v>1.11</v>
@@ -1918,10 +1918,10 @@
         <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S11" t="n">
-        <v>4.8</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1933,7 +1933,7 @@
         <v>1.03</v>
       </c>
       <c r="W11" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,55 +2017,55 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="O12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q12" t="n">
         <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
         <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
         <v>1.47</v>
@@ -2123,6 +2123,411 @@
       </c>
       <c r="AO12" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:35:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -832,16 +832,16 @@
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
         <v>1.09</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>7.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
         <v>5.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.59</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1102,16 +1102,16 @@
         <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
         <v>1.18</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="I6" t="n">
         <v>1.6</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="O6" t="n">
         <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
         <v>1.18</v>
@@ -1246,7 +1246,7 @@
         <v>1.09</v>
       </c>
       <c r="S6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1504,19 +1504,19 @@
         <v>1.36</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="R8" t="n">
         <v>1.09</v>
       </c>
       <c r="S8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1774,19 +1774,19 @@
         <v>1.32</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
         <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R10" t="n">
         <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="T10" t="n">
         <v>1.03</v>
@@ -1888,13 +1888,13 @@
         <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1912,16 +1912,16 @@
         <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.1</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
@@ -2041,34 +2041,34 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
         <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
         <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
         <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2086,7 +2086,7 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>16.5</v>
@@ -2095,7 +2095,7 @@
         <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
         <v>16.5</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
@@ -2194,16 +2194,16 @@
         <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
@@ -2221,31 +2221,31 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
@@ -2254,7 +2254,7 @@
         <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>95</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2314,19 +2314,19 @@
         <v>2.68</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.9</v>
@@ -2335,10 +2335,10 @@
         <v>1.65</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2422,109 +2422,109 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.48</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -694,19 +694,19 @@
         <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -802,100 +802,100 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11</v>
+        <v>2.92</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I4" t="n">
         <v>9.199999999999999</v>
@@ -961,10 +961,10 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>2.48</v>
@@ -976,10 +976,10 @@
         <v>1.59</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -997,7 +997,7 @@
         <v>42</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,25 +1021,25 @@
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.29</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.18</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.14</v>
+        <v>5.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="I6" t="n">
         <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.11</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>2.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="S6" t="n">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
         <v>2.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.1</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.94</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>1.36</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>1.21</v>
+        <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.63</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.32</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.32</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>1.27</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1774,85 +1774,85 @@
         <v>1.32</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>1.32</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="V11" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.1</v>
       </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.55</v>
@@ -2047,10 +2047,10 @@
         <v>1.51</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2065,10 +2065,10 @@
         <v>1.83</v>
       </c>
       <c r="V12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2083,10 +2083,10 @@
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
         <v>16.5</v>
@@ -2095,10 +2095,10 @@
         <v>980</v>
       </c>
       <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
         <v>980</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>16.5</v>
@@ -2215,31 +2215,31 @@
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
         <v>980</v>
@@ -2248,16 +2248,16 @@
         <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="M14" t="n">
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2383,7 +2383,7 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
         <v>1.59</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
@@ -2464,16 +2464,16 @@
         <v>5.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
         <v>8.6</v>
@@ -2482,28 +2482,28 @@
         <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -2515,16 +2515,16 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -709,7 +709,7 @@
         <v>1.27</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
         <v>1.03</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
         <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
         <v>9.800000000000001</v>
@@ -886,7 +886,7 @@
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,10 +895,10 @@
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,76 +937,76 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>13</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1015,13 +1015,13 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.45</v>
@@ -1102,19 +1102,19 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
         <v>2.12</v>
@@ -1123,7 +1123,7 @@
         <v>1.84</v>
       </c>
       <c r="W5" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,79 +1207,79 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W6" t="n">
         <v>1.17</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>18.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
@@ -1288,31 +1288,31 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="I7" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1372,28 +1372,28 @@
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
         <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1477,37 +1477,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1516,19 +1516,19 @@
         <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.35</v>
@@ -1642,13 +1642,13 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
@@ -1657,13 +1657,13 @@
         <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
         <v>1.14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>1.32</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -1780,76 +1780,76 @@
         <v>2.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
         <v>26</v>
       </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>36</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
         <v>1000</v>
@@ -2026,7 +2026,7 @@
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2044,13 +2044,13 @@
         <v>2.68</v>
       </c>
       <c r="O12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
         <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2065,7 +2065,7 @@
         <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2074,7 +2074,7 @@
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
         <v>4.5</v>
@@ -2164,10 +2164,10 @@
         <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.51</v>
@@ -2182,13 +2182,13 @@
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q13" t="n">
         <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
         <v>4.6</v>
@@ -2200,16 +2200,16 @@
         <v>1.76</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2218,25 +2218,25 @@
         <v>150</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>120</v>
@@ -2248,13 +2248,13 @@
         <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
         <v>130</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
         <v>1.55</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
         <v>2.7</v>
@@ -2317,7 +2317,7 @@
         <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
         <v>2.46</v>
@@ -2326,19 +2326,19 @@
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2374,7 +2374,7 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2383,7 +2383,7 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.59</v>
@@ -2446,10 +2446,10 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P15" t="n">
         <v>1.54</v>
@@ -2467,13 +2467,13 @@
         <v>2.12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
         <v>8.6</v>
@@ -2482,10 +2482,10 @@
         <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2524,10 +2524,10 @@
         <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,13 +688,13 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>1.32</v>
@@ -805,25 +805,25 @@
         <v>1.77</v>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -832,7 +832,7 @@
         <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
         <v>2.02</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -961,88 +961,88 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1075,43 +1075,43 @@
         <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
         <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.71</v>
@@ -1120,10 +1120,10 @@
         <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AB6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7">
@@ -1345,31 +1345,31 @@
         <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.74</v>
@@ -1384,16 +1384,16 @@
         <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H8" t="n">
         <v>2.62</v>
@@ -1495,40 +1495,40 @@
         <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
         <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1603,28 +1603,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.51</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.8</v>
+        <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>1.79</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1645,25 +1645,25 @@
         <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
         <v>1.37</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1738,73 +1738,73 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K10" t="n">
         <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,52 +1813,52 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="H11" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.36</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.64</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>1.64</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
         <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="P13" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
       </c>
       <c r="AL13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO13" t="n">
         <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,85 +2278,85 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2365,16 +2365,16 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2383,22 +2383,22 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,261 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paysandu</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.46</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.58</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
         <v>80</v>
       </c>
       <c r="AM15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:35:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
         <v>240</v>
       </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>90</v>
+      <c r="AN16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -670,7 +670,7 @@
         <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H2" t="n">
         <v>1.04</v>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -694,19 +694,19 @@
         <v>1.11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
         <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
         <v>6.8</v>
@@ -832,7 +832,7 @@
         <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -871,7 +871,7 @@
         <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>27</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
         <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
         <v>10.5</v>
@@ -952,7 +952,7 @@
         <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -961,7 +961,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -976,7 +976,7 @@
         <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
         <v>1.86</v>
@@ -988,22 +988,22 @@
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1012,34 +1012,34 @@
         <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ4" t="n">
         <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="AO4" t="n">
         <v>130</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.6</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1102,7 +1102,7 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.86</v>
@@ -1120,7 +1120,7 @@
         <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H6" t="n">
         <v>1.44</v>
       </c>
       <c r="I6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.21</v>
@@ -1240,7 +1240,7 @@
         <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
         <v>1.73</v>
@@ -1252,10 +1252,10 @@
         <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W6" t="n">
         <v>1.15</v>
@@ -1273,13 +1273,13 @@
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1312,7 +1312,7 @@
         <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
         <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.27</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1513,7 +1513,7 @@
         <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
         <v>2.42</v>
@@ -1522,13 +1522,13 @@
         <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H9" t="n">
         <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1636,34 +1636,34 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H10" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.31</v>
@@ -1771,10 +1771,10 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1786,19 +1786,19 @@
         <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1909,7 +1909,7 @@
         <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
         <v>2.34</v>
@@ -1924,7 +1924,7 @@
         <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.36</v>
@@ -1936,16 +1936,16 @@
         <v>2.28</v>
       </c>
       <c r="X11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="n">
         <v>27</v>
       </c>
-      <c r="Y11" t="n">
-        <v>26</v>
-      </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
         <v>14.5</v>
@@ -1960,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1987,7 +1987,7 @@
         <v>7.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2020,22 +2020,22 @@
         <v>1.64</v>
       </c>
       <c r="G12" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2047,10 +2047,10 @@
         <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2065,10 +2065,10 @@
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2158,70 +2158,70 @@
         <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
         <v>2.84</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="R13" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
         <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
         <v>980</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
         <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2230,34 +2230,34 @@
         <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
         <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
         <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
         <v>2.34</v>
@@ -2326,7 +2326,7 @@
         <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
         <v>2.06</v>
@@ -2335,49 +2335,49 @@
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
         <v>980</v>
       </c>
-      <c r="AA14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.55</v>
@@ -2461,10 +2461,10 @@
         <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
         <v>1.79</v>
@@ -2473,43 +2473,43 @@
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
         <v>980</v>
       </c>
-      <c r="Y15" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>30</v>
-      </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2518,16 +2518,16 @@
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2602,28 +2602,28 @@
         <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2632,34 +2632,34 @@
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.11</v>
+        <v>1.91</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
@@ -838,16 +838,16 @@
         <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
@@ -880,10 +880,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
         <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>430</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>13.5</v>
@@ -1012,7 +1012,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1021,28 +1021,28 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL4" t="n">
         <v>30</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1072,55 +1072,55 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="W5" t="n">
         <v>1.3</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
         <v>980</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>6.2</v>
@@ -1240,25 +1240,25 @@
         <v>2.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
         <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1267,10 +1267,10 @@
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB6" t="n">
         <v>980</v>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
         <v>28</v>
@@ -1300,19 +1300,19 @@
         <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="7">
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
         <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="W7" t="n">
         <v>1.24</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
         <v>3.65</v>
@@ -1495,13 +1495,13 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
@@ -1510,13 +1510,13 @@
         <v>2.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
         <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
         <v>1.58</v>
@@ -1525,10 +1525,10 @@
         <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,28 +1612,28 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>3.95</v>
@@ -1651,7 +1651,7 @@
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
         <v>1.79</v>
@@ -1660,7 +1660,7 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.19</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
         <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
         <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
@@ -1909,16 +1909,16 @@
         <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
@@ -1930,37 +1930,37 @@
         <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,25 +1969,25 @@
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -2020,28 +2020,28 @@
         <v>1.64</v>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
@@ -2056,10 +2056,10 @@
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
@@ -2068,7 +2068,7 @@
         <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
         <v>980</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
         <v>3.3</v>
@@ -2161,31 +2161,31 @@
         <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>3.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
         <v>1.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
@@ -2194,28 +2194,28 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
         <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2224,37 +2224,37 @@
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
         <v>46</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
         <v>2.96</v>
@@ -2317,13 +2317,13 @@
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
         <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
         <v>4.5</v>
@@ -2335,22 +2335,22 @@
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
         <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
         <v>7.4</v>
@@ -2359,10 +2359,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
         <v>10.5</v>
@@ -2374,22 +2374,22 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>120</v>
@@ -2440,10 +2440,10 @@
         <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
         <v>2.7</v>
@@ -2461,7 +2461,7 @@
         <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
         <v>2.02</v>
@@ -2473,16 +2473,16 @@
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
         <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,10 +2491,10 @@
         <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2512,10 +2512,10 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
         <v>70</v>
@@ -2524,10 +2524,10 @@
         <v>210</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -2563,13 +2563,13 @@
         <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
         <v>3.15</v>
@@ -2590,22 +2590,22 @@
         <v>1.54</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
         <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T16" t="n">
         <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
         <v>1.63</v>
@@ -2614,7 +2614,7 @@
         <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
         <v>24</v>
@@ -2635,10 +2635,10 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>980</v>
@@ -2647,16 +2647,16 @@
         <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.91</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.11</v>
+        <v>2.92</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>2.36</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -889,13 +889,13 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>60</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1006,28 +1006,28 @@
         <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
         <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
         <v>13.5</v>
@@ -1039,10 +1039,10 @@
         <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="I5" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="J5" t="n">
         <v>3.7</v>
@@ -1090,7 +1090,7 @@
         <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,34 +1102,34 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
         <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,10 +1141,10 @@
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>6.2</v>
@@ -1237,28 +1237,28 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1267,16 +1267,16 @@
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
         <v>14.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
@@ -1288,28 +1288,28 @@
         <v>70</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
         <v>4.9</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.95</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1480,61 +1480,61 @@
         <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
         <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
         <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,49 +1612,49 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -1666,13 +1666,13 @@
         <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -1897,34 +1897,34 @@
         <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.36</v>
@@ -1933,25 +1933,25 @@
         <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>19.5</v>
@@ -1960,19 +1960,19 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>18</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -1984,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
         <v>38</v>
@@ -2017,43 +2017,43 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
         <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
         <v>4.9</v>
@@ -2062,7 +2062,7 @@
         <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
         <v>1.14</v>
@@ -2071,7 +2071,7 @@
         <v>2.36</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,10 +2095,10 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2152,79 +2152,79 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>40</v>
@@ -2233,31 +2233,31 @@
         <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
         <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2287,73 +2287,73 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
         <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
         <v>1.76</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
         <v>8.199999999999999</v>
@@ -2362,37 +2362,37 @@
         <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
         <v>1.56</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T15" t="n">
         <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
         <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
         <v>11.5</v>
@@ -2503,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2512,7 +2512,7 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
@@ -2557,49 +2557,49 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="G16" t="n">
         <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O16" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P16" t="n">
         <v>1.54</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
         <v>1.74</v>
@@ -2608,7 +2608,7 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X16" t="n">
         <v>8.6</v>
@@ -2623,10 +2623,10 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
         <v>17</v>
@@ -2635,19 +2635,19 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -880,34 +880,34 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
         <v>200</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,22 +1003,22 @@
         <v>430</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>25</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.97</v>
@@ -1087,7 +1087,7 @@
         <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1102,19 +1102,19 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
         <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1126,58 +1126,58 @@
         <v>1.28</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X6" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>220</v>
       </c>
       <c r="AK6" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
         <v>70</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>80</v>
       </c>
       <c r="AN6" t="n">
         <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>4.1</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
         <v>3.95</v>
@@ -1360,76 +1360,76 @@
         <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="W7" t="n">
         <v>1.29</v>
       </c>
       <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH7" t="n">
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
         <v>2.82</v>
@@ -1489,13 +1489,13 @@
         <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1507,34 +1507,34 @@
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T8" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
         <v>2.38</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="G9" t="n">
         <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1654,19 +1654,19 @@
         <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="W9" t="n">
         <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>9.6</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>4.7</v>
@@ -1765,22 +1765,22 @@
         <v>5.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
         <v>1.37</v>
@@ -1789,52 +1789,52 @@
         <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
         <v>3.1</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ10" t="n">
         <v>12.5</v>
@@ -1843,10 +1843,10 @@
         <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>8.199999999999999</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="n">
         <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.29</v>
@@ -1906,31 +1906,31 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
         <v>2.4</v>
@@ -1939,13 +1939,13 @@
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -1954,10 +1954,10 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
@@ -1981,13 +1981,13 @@
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
         <v>2.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
         <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2155,49 +2155,49 @@
         <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
         <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V13" t="n">
         <v>1.58</v>
@@ -2206,13 +2206,13 @@
         <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>42</v>
@@ -2224,19 +2224,19 @@
         <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2245,19 +2245,19 @@
         <v>65</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
         <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
         <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB14" t="n">
         <v>7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.56</v>
@@ -2446,7 +2446,7 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
         <v>1.51</v>
@@ -2455,55 +2455,55 @@
         <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R15" t="n">
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2512,13 +2512,13 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
         <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>210</v>
@@ -2527,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
         <v>3.15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
         <v>1.54</v>
@@ -2596,46 +2596,46 @@
         <v>1.19</v>
       </c>
       <c r="S16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
         <v>8.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2647,10 +2647,10 @@
         <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AK16" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>230</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-07.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>1.22</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.3</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
         <v>60</v>
       </c>
-      <c r="AA3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AO3" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="G4" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="n">
         <v>60</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G5" t="n">
         <v>4.6</v>
@@ -1081,55 +1081,55 @@
         <v>1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
         <v>12.5</v>
@@ -1138,16 +1138,16 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
@@ -1156,28 +1156,28 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>55</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="W6" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="X6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="7">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
         <v>1.94</v>
@@ -1381,73 +1381,73 @@
         <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="H8" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
         <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n">
         <v>6.2</v>
@@ -1621,13 +1621,13 @@
         <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1645,79 +1645,79 @@
         <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="W9" t="n">
         <v>1.19</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>42</v>
-      </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1747,79 +1747,79 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W10" t="n">
         <v>3.35</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.1</v>
-      </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,31 +1828,31 @@
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK10" t="n">
         <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -1882,67 +1882,67 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>2.38</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
         <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,31 +1951,31 @@
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>12.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH11" t="n">
         <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>26</v>
@@ -1984,10 +1984,10 @@
         <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,67 +2017,67 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
         <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,43 +2086,43 @@
         <v>6.4</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.58</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
@@ -2170,22 +2170,22 @@
         <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P13" t="n">
         <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
@@ -2194,70 +2194,70 @@
         <v>5.3</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>960</v>
       </c>
       <c r="AK13" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
         <v>1.92</v>
@@ -2296,13 +2296,13 @@
         <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.54</v>
@@ -2311,85 +2311,85 @@
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
         <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>960</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO14" t="n">
         <v>960</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -2446,58 +2446,58 @@
         <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="O15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2524,10 +2524,10 @@
         <v>210</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
         <v>2.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P16" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="R16" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S16" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="X16" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
         <v>60</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
